--- a/xlsx/第三产业_intext.xlsx
+++ b/xlsx/第三产业_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>第三产业</t>
   </si>
@@ -29,7 +29,7 @@
     <t>生产</t>
   </si>
   <si>
-    <t>政策_政策_美國_第三产业</t>
+    <t>政策_政策_美国_第三产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E5%93%81</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>貿易</t>
+    <t>贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>飯店</t>
+    <t>饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E9%A5%AE</t>
@@ -83,31 +83,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>保險</t>
+    <t>保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>公共服務</t>
+    <t>公共服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%B7%A5%E4%BD%9C</t>
   </si>
   <si>
-    <t>社會工作</t>
+    <t>社会工作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第四產業</t>
+    <t>第四产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%A7%E4%B8%9A</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E7%94%A2%E6%A5%AD</t>
   </si>
   <si>
-    <t>第五產業</t>
+    <t>第五产业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E6%94%BF</t>
   </si>
   <si>
-    <t>郵政</t>
+    <t>邮政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E8%B7%AF%E8%BF%90%E8%BE%93</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E7%99%BC</t>
   </si>
   <si>
-    <t>批發</t>
+    <t>批发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E5%94%AE</t>
@@ -275,9 +275,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E4%BA%A7%E4%B8%9A</t>
   </si>
   <si>
-    <t>第四产业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%B4%A8%E9%87%8F%E7%9B%91%E7%9D%A3%E6%A3%80%E9%AA%8C%E6%A3%80%E7%96%AB%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -311,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1932,7 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1961,10 +1958,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1990,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2019,10 +2016,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2048,10 +2045,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -2077,10 +2074,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2106,10 +2103,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2135,10 +2132,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
